--- a/documentacion/PREGUNTARJETAS/segundo/Claves segundo.xlsx
+++ b/documentacion/PREGUNTARJETAS/segundo/Claves segundo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN\Desktop\MatLAPP\PREGUNTARJETAS\segundo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MatLapp\documentacion\PREGUNTARJETAS\segundo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Numeros" sheetId="1" r:id="rId1"/>
@@ -867,11 +867,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,6 +881,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -907,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -929,80 +937,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6060,7 +6001,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="141414"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -6321,7 +6262,7 @@
   <dimension ref="A2:N62"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6899,7 +6840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N63"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="I44" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -7759,8 +7700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N63"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8236,7 +8177,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -8325,7 +8266,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8894,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="I13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
